--- a/Check.xlsx
+++ b/Check.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -62,6 +62,18 @@
 </t>
   </si>
   <si>
+    <t>Попытка авторизации с вводом более 50 символов в логин и пароль</t>
+  </si>
+  <si>
+    <t>Не пройден</t>
+  </si>
+  <si>
+    <t>Попытка авторизации с вводом только символов в логин и пароль</t>
+  </si>
+  <si>
+    <t>Попытка авторизации без интернета</t>
+  </si>
+  <si>
     <t>Попытка авторизации с пустыми полями "логин" и "пароль"</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>Возврат на главную страницу кликом по заголовку ВХОСПИСЕ</t>
   </si>
   <si>
-    <t>Не пройден</t>
-  </si>
-  <si>
     <t>Переход в раздел Love is all</t>
   </si>
   <si>
@@ -99,6 +108,18 @@
   </si>
   <si>
     <t>Добавление новой новости с некорректным временем</t>
+  </si>
+  <si>
+    <t>Добавление новой новости с некорректной категорией</t>
+  </si>
+  <si>
+    <t>Добавление новой новости с датой + 20 лет</t>
+  </si>
+  <si>
+    <t>Добавление новой новости с прошедшей датой</t>
+  </si>
+  <si>
+    <t>Добавление новой новости без описания</t>
   </si>
   <si>
     <t>Редактирование новости</t>
@@ -438,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -483,6 +504,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
@@ -850,17 +877,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="34" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="35" width="57.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="35" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="35" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="36" width="54.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="36" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="37" width="57.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="37" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="37" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="38" width="54.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -960,8 +987,8 @@
       </c>
       <c r="E7" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18" customFormat="1" s="6">
-      <c r="A8" s="11"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="30">
+      <c r="A8" s="16"/>
       <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
@@ -969,153 +996,157 @@
         <v>13</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18" customFormat="1" s="6">
+        <v>16</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="29.25">
       <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="20" t="s">
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>17</v>
+      <c r="E9" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="23"/>
-      <c r="B11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18" customFormat="1" s="6">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18" customFormat="1" s="6">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20" t="s">
-        <v>22</v>
+      <c r="A14" s="25"/>
+      <c r="B14" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="14"/>
+      <c r="D14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
-      <c r="A15" s="23"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75" customFormat="1" s="6">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="24"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="24"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
-      <c r="A17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18" customFormat="1" s="6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+      <c r="D17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+      <c r="A18" s="25"/>
+      <c r="B18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>18</v>
+      <c r="C18" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18" customFormat="1" s="6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75" customFormat="1" s="6">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+      <c r="A20" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18" customFormat="1" s="6">
-      <c r="A20" s="11"/>
       <c r="B20" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="14"/>
+      <c r="D20" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18" customFormat="1" s="6">
       <c r="A21" s="11"/>
@@ -1123,54 +1154,54 @@
         <v>30</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E21" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18" customFormat="1" s="6">
-      <c r="A22" s="11"/>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="16"/>
       <c r="B22" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18" customFormat="1" s="6">
-      <c r="A23" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="E22" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="16"/>
       <c r="B23" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18" customFormat="1" s="6">
-      <c r="A24" s="11"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="16"/>
       <c r="B24" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="6">
-      <c r="A25" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="E24" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="16"/>
       <c r="B25" s="12" t="s">
         <v>34</v>
       </c>
@@ -1178,24 +1209,24 @@
         <v>7</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="6">
+        <v>16</v>
+      </c>
+      <c r="E25" s="17"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18" customFormat="1" s="6">
       <c r="A26" s="11"/>
       <c r="B26" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E26" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18" customFormat="1" s="6">
       <c r="A27" s="11"/>
       <c r="B27" s="12" t="s">
         <v>36</v>
@@ -1208,359 +1239,450 @@
       </c>
       <c r="E27" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="6">
-      <c r="A28" s="16"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" customFormat="1" s="6">
-      <c r="A29" s="11" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18" customFormat="1" s="6">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="C28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18" customFormat="1" s="6">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18" customFormat="1" s="6">
       <c r="A30" s="11"/>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="30" t="s">
+      <c r="C30" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18" customFormat="1" s="6">
       <c r="A31" s="11"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="B31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="E31" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="33" customFormat="1" s="6">
-      <c r="A33" s="25" t="s">
-        <v>40</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18" customFormat="1" s="6">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18" customFormat="1" s="6">
+      <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="27" customFormat="1" s="6">
+        <v>16</v>
+      </c>
+      <c r="E33" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18" customFormat="1" s="6">
       <c r="A34" s="11"/>
       <c r="B34" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18" customFormat="1" s="6">
+      <c r="A35" s="18"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18" customFormat="1" s="6">
+      <c r="A36" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" customFormat="1" s="6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="36" customFormat="1" s="6">
-      <c r="A36" s="25" t="s">
+      <c r="B36" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18" customFormat="1" s="6">
+      <c r="A37" s="11"/>
+      <c r="B37" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="36" customFormat="1" s="6">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="13" t="s">
+      <c r="C37" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="32" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="14"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18" customFormat="1" s="6">
+      <c r="A38" s="11"/>
+      <c r="B38" s="31"/>
       <c r="C38" s="32"/>
       <c r="D38" s="32"/>
-      <c r="E38" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="33"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18" customFormat="1" s="6">
+      <c r="A39" s="18"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18" customFormat="1" s="6">
+      <c r="A40" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="29.25" customFormat="1" s="6">
+      <c r="A41" s="11"/>
+      <c r="B41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18" customFormat="1" s="6">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="21" customFormat="1" s="6">
+      <c r="A43" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="21" customFormat="1" s="6">
+      <c r="A44" s="11"/>
+      <c r="B44" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+      <c r="A47" s="33"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="33"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="33"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
+      <c r="A50" s="33"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="19.5">
+      <c r="A51" s="33"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="33"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="33"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="33"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="33"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="33"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="33"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="33"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="33"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="33"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="33"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="33"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="33"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="33"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="33"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="35"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="33"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="33"/>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="33"/>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="33"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="33"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="33"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="33"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="35"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="33"/>
+      <c r="B77" s="34"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A17:A27"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A20:A34"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
